--- a/biology/Zoologie/Colobus_satanas/Colobus_satanas.xlsx
+++ b/biology/Zoologie/Colobus_satanas/Colobus_satanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colobus satanas est une espèce qui fait partie des mammifères Primates. C’est un  singe de la famille des Cercopithecidae, appelé en français, entre autres, Colobe satan ou Guéréza noir. L'espèce est vulnérable.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est désignée en français par plusieurs noms vernaculaires, au choix en tant que colobe ou guéréza : Colobe satan[1],[2] ou Guéréza noir[2]. On trouve aussi une appellation commune à une autre espèce : Colobe noir[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est désignée en français par plusieurs noms vernaculaires, au choix en tant que colobe ou guéréza : Colobe satan, ou Guéréza noir. On trouve aussi une appellation commune à une autre espèce : Colobe noir
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (6 mars 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (6 mars 2011) :
 sous-espèce Colobus satanas anthracinus
 sous-espèce Colobus satanas satanas
-Selon NCBI  (6 mars 2011)[4] :
+Selon NCBI  (6 mars 2011) :
 sous-espèce Colobus satanas satanas</t>
         </is>
       </c>
